--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BIB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$108</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="470">
   <si>
     <t>Variable</t>
   </si>
@@ -1446,6 +1446,18 @@
   </si>
   <si>
     <t>BE_IND_219_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_17</t>
+  </si>
+  <si>
+    <t>IND_17</t>
+  </si>
+  <si>
+    <t>17 - CRR Default</t>
+  </si>
+  <si>
+    <t>BE_IND_17_STRING</t>
   </si>
 </sst>
 </file>
@@ -1705,8 +1717,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>119409</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1763,8 +1775,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>119409</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1821,8 +1833,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>119409</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1879,8 +1891,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>119409</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1937,8 +1949,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>119409</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>108825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2632,11 +2644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -2838,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -2879,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2920,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2961,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -3002,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -3043,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -3084,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -3125,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -3166,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
@@ -3207,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -3248,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -3294,22 +3305,22 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="C17" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="D17" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="E17" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="F17" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -3330,27 +3341,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>443</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>443</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>443</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>444</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>445</v>
       </c>
       <c r="G18">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -3371,68 +3382,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19">
+        <v>34</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>69</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>78</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>92</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>35</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20">
-        <v>40</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -3453,27 +3464,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G21">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -3494,68 +3505,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22">
+        <v>44</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
         <v>72</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>72</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>81</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>93</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>51</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23">
-        <v>55</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -3566,78 +3577,78 @@
       <c r="J23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="14" t="b">
+      <c r="K23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24">
+        <v>55</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
         <v>74</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>74</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>83</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>89</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>56</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" t="s">
-        <v>267</v>
-      </c>
-      <c r="G25">
-        <v>58</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -3658,27 +3669,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G26">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -3699,27 +3710,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G27">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -3740,27 +3751,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G28">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -3781,27 +3792,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G29">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3822,27 +3833,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G30">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -3863,27 +3874,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G31">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -3904,27 +3915,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>440</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>440</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>440</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>455</v>
+        <v>195</v>
       </c>
       <c r="F32" t="s">
-        <v>456</v>
+        <v>273</v>
       </c>
       <c r="G32">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -3945,27 +3956,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>440</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>440</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>440</v>
       </c>
       <c r="E33" t="s">
-        <v>196</v>
+        <v>455</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>456</v>
       </c>
       <c r="G33">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -3986,27 +3997,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G34">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -4027,27 +4038,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G35">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -4068,27 +4079,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G36">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -4109,27 +4120,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G37">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -4150,27 +4161,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G38">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -4191,27 +4202,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G39">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -4232,27 +4243,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G40">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4273,27 +4284,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G41">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4314,27 +4325,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G42">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4355,27 +4366,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G43">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4396,27 +4407,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G44">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4437,27 +4448,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G45">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4478,27 +4489,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G46">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -4519,27 +4530,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G47">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4560,27 +4571,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G48">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4601,27 +4612,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G49">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4642,27 +4653,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G50">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4683,27 +4694,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F51" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G51">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4724,27 +4735,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G52">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4765,27 +4776,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>424</v>
+        <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>424</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>424</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>425</v>
+        <v>215</v>
       </c>
       <c r="F53" t="s">
-        <v>426</v>
+        <v>293</v>
       </c>
       <c r="G53">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4806,27 +4817,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>424</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>424</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>424</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>425</v>
       </c>
       <c r="F54" t="s">
-        <v>294</v>
+        <v>426</v>
       </c>
       <c r="G54">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -4847,27 +4858,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G55">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -4888,27 +4899,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G56">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -4929,27 +4940,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G57">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -4970,27 +4981,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G58">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -5011,27 +5022,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G59">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -5052,27 +5063,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G60">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -5093,27 +5104,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F61" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G61">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -5134,27 +5145,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G62">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -5175,27 +5186,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G63">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -5216,27 +5227,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G64">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -5257,27 +5268,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G65">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -5298,27 +5309,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F66" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G66">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -5339,27 +5350,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F67" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G67">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -5380,27 +5391,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F68" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G68">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -5421,27 +5432,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G69">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -5462,27 +5473,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F70" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G70">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -5503,27 +5514,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G71">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -5544,27 +5555,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G72">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -5585,27 +5596,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F73" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G73">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -5626,27 +5637,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G74">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -5667,27 +5678,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G75">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -5708,27 +5719,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G76">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -5749,27 +5760,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G77">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -5790,27 +5801,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G78">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -5831,27 +5842,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F79" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G79">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -5872,27 +5883,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F80" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G80">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -5913,27 +5924,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F81" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G81">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -5954,27 +5965,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F82" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G82">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -5995,68 +6006,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" t="s">
+        <v>244</v>
+      </c>
+      <c r="F83" t="s">
+        <v>322</v>
+      </c>
+      <c r="G83">
+        <v>133</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
         <v>167</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>167</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>167</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>245</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>323</v>
       </c>
-      <c r="G83">
+      <c r="G84">
         <v>172</v>
-      </c>
-      <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K83" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L83" t="b">
-        <v>0</v>
-      </c>
-      <c r="M83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" t="s">
-        <v>168</v>
-      </c>
-      <c r="C84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D84" t="s">
-        <v>168</v>
-      </c>
-      <c r="E84" t="s">
-        <v>246</v>
-      </c>
-      <c r="F84" t="s">
-        <v>324</v>
-      </c>
-      <c r="G84">
-        <v>173</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -6077,27 +6088,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F85" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G85">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -6118,27 +6129,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F86" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G86">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -6159,68 +6170,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B87" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" t="s">
+        <v>170</v>
+      </c>
+      <c r="D87" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" t="s">
+        <v>248</v>
+      </c>
+      <c r="F87" t="s">
+        <v>326</v>
+      </c>
+      <c r="G87">
+        <v>175</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K87" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
         <v>171</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>171</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>171</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E88" t="s">
         <v>249</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F88" t="s">
         <v>327</v>
       </c>
-      <c r="G87">
+      <c r="G88">
         <v>180</v>
-      </c>
-      <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K87" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L87" t="b">
-        <v>0</v>
-      </c>
-      <c r="M87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" t="s">
-        <v>172</v>
-      </c>
-      <c r="C88" t="s">
-        <v>172</v>
-      </c>
-      <c r="D88" t="s">
-        <v>172</v>
-      </c>
-      <c r="E88" t="s">
-        <v>250</v>
-      </c>
-      <c r="F88" t="s">
-        <v>328</v>
-      </c>
-      <c r="G88">
-        <v>181</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -6241,27 +6252,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E89" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G89">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -6282,27 +6293,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F90" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G90">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -6323,27 +6334,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F91" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G91">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -6364,27 +6375,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G92">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -6405,27 +6416,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F93" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G93">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -6446,27 +6457,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F94" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G94">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6487,27 +6498,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C95" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D95" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F95" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G95">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -6528,27 +6539,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G96">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -6569,27 +6580,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F97" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G97">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -6610,27 +6621,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>447</v>
+        <v>181</v>
       </c>
       <c r="C98" t="s">
-        <v>447</v>
+        <v>181</v>
       </c>
       <c r="D98" t="s">
-        <v>447</v>
+        <v>181</v>
       </c>
       <c r="E98" t="s">
-        <v>448</v>
+        <v>259</v>
       </c>
       <c r="F98" t="s">
-        <v>449</v>
+        <v>337</v>
       </c>
       <c r="G98">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -6651,27 +6662,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>182</v>
+        <v>447</v>
       </c>
       <c r="C99" t="s">
-        <v>182</v>
+        <v>447</v>
       </c>
       <c r="D99" t="s">
-        <v>182</v>
+        <v>447</v>
       </c>
       <c r="E99" t="s">
-        <v>260</v>
+        <v>448</v>
       </c>
       <c r="F99" t="s">
-        <v>338</v>
+        <v>449</v>
       </c>
       <c r="G99">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -6692,27 +6703,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F100" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G100">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6733,27 +6744,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E101" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F101" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G101">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -6774,27 +6785,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>451</v>
+        <v>184</v>
       </c>
       <c r="C102" t="s">
-        <v>451</v>
+        <v>184</v>
       </c>
       <c r="D102" t="s">
-        <v>451</v>
+        <v>184</v>
       </c>
       <c r="E102" t="s">
-        <v>452</v>
+        <v>262</v>
       </c>
       <c r="F102" t="s">
-        <v>453</v>
+        <v>340</v>
       </c>
       <c r="G102">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -6815,27 +6826,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>451</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>451</v>
       </c>
       <c r="D103" t="s">
-        <v>185</v>
+        <v>451</v>
       </c>
       <c r="E103" t="s">
-        <v>263</v>
+        <v>452</v>
       </c>
       <c r="F103" t="s">
-        <v>341</v>
+        <v>453</v>
       </c>
       <c r="G103">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -6856,27 +6867,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E104" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F104" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G104">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -6897,27 +6908,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E105" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G105">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -6938,27 +6949,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E106" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F106" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G106">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -6979,55 +6990,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B107" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" t="s">
+        <v>188</v>
+      </c>
+      <c r="D107" t="s">
+        <v>188</v>
+      </c>
+      <c r="E107" t="s">
+        <v>266</v>
+      </c>
+      <c r="F107" t="s">
+        <v>344</v>
+      </c>
+      <c r="G107">
+        <v>218</v>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K107" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
         <v>463</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>463</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>463</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>464</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F108" t="s">
         <v>462</v>
       </c>
-      <c r="G107">
+      <c r="G108">
         <v>219</v>
       </c>
-      <c r="H107" t="b">
-        <v>0</v>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="7" t="s">
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K107" s="15" t="s">
+      <c r="K108" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L107" t="b">
-        <v>0</v>
-      </c>
-      <c r="M107" t="b">
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M107">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="true"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:M108"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7036,11 +7082,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7310,13 +7356,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>469</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>469</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -7327,13 +7373,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>446</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>446</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>443</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -7344,13 +7390,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>446</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>446</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>443</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -7361,16 +7407,16 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7378,13 +7424,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -7395,13 +7441,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -7412,16 +7458,16 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7429,13 +7475,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>461</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>461</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -7446,16 +7492,16 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>461</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>461</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7463,13 +7509,13 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>345</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>345</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -7480,13 +7526,13 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
@@ -7497,13 +7543,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -7514,13 +7560,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -7531,13 +7577,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -7548,13 +7594,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -7565,13 +7611,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -7582,13 +7628,13 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="C32" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="E32" t="s">
-        <v>440</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -7599,13 +7645,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>352</v>
+        <v>439</v>
       </c>
       <c r="C33" t="s">
-        <v>352</v>
+        <v>439</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>440</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -7616,13 +7662,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -7633,13 +7679,13 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -7650,13 +7696,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -7667,13 +7713,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -7684,13 +7730,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -7701,13 +7747,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -7718,13 +7764,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -7735,13 +7781,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -7752,13 +7798,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -7769,13 +7815,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -7786,13 +7832,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -7803,13 +7849,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -7820,13 +7866,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C46" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -7837,13 +7883,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C47" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -7854,13 +7900,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -7871,13 +7917,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C49" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -7888,13 +7934,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -7905,13 +7951,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C51" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -7922,13 +7968,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -7939,13 +7985,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="C53" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="E53" t="s">
-        <v>424</v>
+        <v>137</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -7956,13 +8002,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="C54" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>424</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -7973,13 +8019,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -7990,13 +8036,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C56" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -8007,13 +8053,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C57" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -8024,13 +8070,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -8041,13 +8087,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8058,13 +8104,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -8075,13 +8121,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -8092,13 +8138,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -8109,13 +8155,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C63" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -8126,13 +8172,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -8143,13 +8189,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C65" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -8160,13 +8206,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C66" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -8177,13 +8223,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C67" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -8194,13 +8240,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C68" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -8211,13 +8257,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -8228,13 +8274,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C70" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -8245,13 +8291,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C71" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -8262,13 +8308,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E72" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -8279,13 +8325,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C73" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -8296,13 +8342,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C74" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -8313,13 +8359,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C75" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -8330,13 +8376,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C76" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -8347,13 +8393,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C77" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -8364,13 +8410,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C78" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -8381,13 +8427,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C79" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -8398,13 +8444,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C80" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -8415,13 +8461,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C81" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -8432,13 +8478,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C82" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -8449,16 +8495,16 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C83" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -8466,13 +8512,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C84" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F84" t="s">
         <v>23</v>
@@ -8483,13 +8529,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C85" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F85" t="s">
         <v>23</v>
@@ -8500,13 +8546,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C86" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
         <v>23</v>
@@ -8517,16 +8563,16 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C87" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -8534,13 +8580,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C88" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
         <v>22</v>
@@ -8551,13 +8597,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
@@ -8568,13 +8614,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C90" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -8585,13 +8631,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C91" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -8602,13 +8648,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C92" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
@@ -8619,13 +8665,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C93" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
         <v>22</v>
@@ -8636,13 +8682,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C94" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
         <v>22</v>
@@ -8653,13 +8699,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C95" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F95" t="s">
         <v>22</v>
@@ -8670,13 +8716,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C96" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
@@ -8687,13 +8733,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C97" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
@@ -8704,13 +8750,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="C98" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="E98" t="s">
-        <v>447</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -8721,13 +8767,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="C99" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="E99" t="s">
-        <v>182</v>
+        <v>447</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -8738,13 +8784,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C100" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
@@ -8755,13 +8801,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F101" t="s">
         <v>22</v>
@@ -8772,13 +8818,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="C102" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="E102" t="s">
-        <v>451</v>
+        <v>184</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -8789,13 +8835,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="C103" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="E103" t="s">
-        <v>185</v>
+        <v>451</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -8806,13 +8852,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C104" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -8823,13 +8869,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C105" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -8840,13 +8886,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C106" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
@@ -8857,15 +8903,32 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
+        <v>422</v>
+      </c>
+      <c r="C107" t="s">
+        <v>422</v>
+      </c>
+      <c r="E107" t="s">
+        <v>188</v>
+      </c>
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
         <v>465</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>465</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>463</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F108" t="s">
         <v>23</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BIB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <t>TARGET</t>
   </si>
   <si>
-    <t>Target Default (6 months)</t>
-  </si>
-  <si>
     <t>REAl</t>
   </si>
   <si>
@@ -1458,18 +1455,28 @@
   </si>
   <si>
     <t>BE_IND_17_STRING</t>
+  </si>
+  <si>
+    <t>Target Default (3 months)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1584,41 +1591,42 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2646,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,16 +2722,16 @@
         <v>7</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -2731,7 +2739,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>42</v>
@@ -2755,7 +2763,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>13</v>
@@ -2772,7 +2780,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>43</v>
@@ -2783,8 +2791,8 @@
       <c r="E4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>44</v>
+      <c r="F4" s="18" t="s">
+        <v>469</v>
       </c>
       <c r="G4" s="6">
         <v>201</v>
@@ -2796,7 +2804,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>12</v>
@@ -2813,19 +2821,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>431</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G5" s="6">
         <v>202</v>
@@ -2837,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="14" t="b">
         <v>1</v>
@@ -2854,19 +2862,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2878,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>12</v>
@@ -2895,19 +2903,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2919,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>13</v>
@@ -2936,19 +2944,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -2960,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>13</v>
@@ -2977,19 +2985,19 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -3001,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="14" t="s">
         <v>12</v>
@@ -3018,19 +3026,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -3042,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10" s="14" t="s">
         <v>12</v>
@@ -3059,19 +3067,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -3083,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>12</v>
@@ -3100,20 +3108,20 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E12" t="s">
         <v>457</v>
       </c>
-      <c r="C12" t="s">
-        <v>457</v>
-      </c>
-      <c r="D12" t="s">
-        <v>457</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>458</v>
       </c>
-      <c r="F12" t="s">
-        <v>459</v>
-      </c>
       <c r="G12">
         <v>11</v>
       </c>
@@ -3124,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12" s="16" t="b">
         <v>1</v>
@@ -3141,19 +3149,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F13" t="s">
         <v>441</v>
-      </c>
-      <c r="F13" t="s">
-        <v>442</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -3165,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13" s="14" t="s">
         <v>12</v>
@@ -3182,19 +3190,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14">
         <v>14</v>
@@ -3206,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>12</v>
@@ -3223,19 +3231,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E15" t="s">
+        <v>434</v>
+      </c>
+      <c r="F15" t="s">
         <v>435</v>
-      </c>
-      <c r="F15" t="s">
-        <v>436</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -3247,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>13</v>
@@ -3264,19 +3272,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -3288,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>13</v>
@@ -3305,19 +3313,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
+        <v>465</v>
+      </c>
+      <c r="C17" t="s">
+        <v>465</v>
+      </c>
+      <c r="D17" t="s">
+        <v>465</v>
+      </c>
+      <c r="E17" t="s">
         <v>466</v>
       </c>
-      <c r="C17" t="s">
-        <v>466</v>
-      </c>
-      <c r="D17" t="s">
-        <v>466</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>467</v>
-      </c>
-      <c r="F17" t="s">
-        <v>468</v>
       </c>
       <c r="G17">
         <v>17</v>
@@ -3329,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>13</v>
@@ -3346,19 +3354,19 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C18" t="s">
+        <v>442</v>
+      </c>
+      <c r="D18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E18" t="s">
         <v>443</v>
       </c>
-      <c r="C18" t="s">
-        <v>443</v>
-      </c>
-      <c r="D18" t="s">
-        <v>443</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>444</v>
-      </c>
-      <c r="F18" t="s">
-        <v>445</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -3370,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>13</v>
@@ -3387,19 +3395,19 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19">
         <v>34</v>
@@ -3411,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>13</v>
@@ -3428,19 +3436,19 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20">
         <v>35</v>
@@ -3452,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>12</v>
@@ -3469,19 +3477,19 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21">
         <v>40</v>
@@ -3493,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>12</v>
@@ -3510,19 +3518,19 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22">
         <v>44</v>
@@ -3534,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>12</v>
@@ -3551,19 +3559,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23">
         <v>51</v>
@@ -3575,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>13</v>
@@ -3592,19 +3600,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24">
         <v>55</v>
@@ -3616,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24" s="14" t="b">
         <v>1</v>
@@ -3633,19 +3641,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25">
         <v>56</v>
@@ -3657,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>12</v>
@@ -3674,19 +3682,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G26">
         <v>58</v>
@@ -3698,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>12</v>
@@ -3715,19 +3723,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G27">
         <v>60</v>
@@ -3739,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>12</v>
@@ -3756,19 +3764,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G28">
         <v>61</v>
@@ -3780,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>12</v>
@@ -3797,19 +3805,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G29">
         <v>62</v>
@@ -3821,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>12</v>
@@ -3838,19 +3846,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G30">
         <v>63</v>
@@ -3862,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30" s="14" t="s">
         <v>12</v>
@@ -3879,19 +3887,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G31">
         <v>64</v>
@@ -3903,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>12</v>
@@ -3920,19 +3928,19 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G32">
         <v>66</v>
@@ -3944,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>12</v>
@@ -3961,19 +3969,19 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E33" t="s">
+        <v>454</v>
+      </c>
+      <c r="F33" t="s">
         <v>455</v>
-      </c>
-      <c r="F33" t="s">
-        <v>456</v>
       </c>
       <c r="G33">
         <v>67</v>
@@ -3985,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>12</v>
@@ -4002,19 +4010,19 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G34">
         <v>68</v>
@@ -4026,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>12</v>
@@ -4043,19 +4051,19 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G35">
         <v>69</v>
@@ -4067,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>12</v>
@@ -4084,19 +4092,19 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G36">
         <v>70</v>
@@ -4108,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36" s="14" t="s">
         <v>12</v>
@@ -4125,19 +4133,19 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G37">
         <v>71</v>
@@ -4149,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37" s="14" t="s">
         <v>12</v>
@@ -4166,19 +4174,19 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G38">
         <v>74</v>
@@ -4190,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38" s="14" t="s">
         <v>12</v>
@@ -4207,19 +4215,19 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G39">
         <v>75</v>
@@ -4231,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39" s="14" t="s">
         <v>12</v>
@@ -4248,19 +4256,19 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G40">
         <v>76</v>
@@ -4272,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>12</v>
@@ -4289,19 +4297,19 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G41">
         <v>77</v>
@@ -4313,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41" s="14" t="s">
         <v>12</v>
@@ -4330,19 +4338,19 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G42">
         <v>78</v>
@@ -4354,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K42" s="14" t="s">
         <v>12</v>
@@ -4371,19 +4379,19 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G43">
         <v>79</v>
@@ -4395,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K43" s="14" t="s">
         <v>12</v>
@@ -4412,19 +4420,19 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G44">
         <v>80</v>
@@ -4436,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K44" s="14" t="s">
         <v>12</v>
@@ -4453,19 +4461,19 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G45">
         <v>81</v>
@@ -4477,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K45" s="14" t="s">
         <v>12</v>
@@ -4494,19 +4502,19 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G46">
         <v>82</v>
@@ -4518,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K46" s="14" t="s">
         <v>12</v>
@@ -4535,19 +4543,19 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G47">
         <v>83</v>
@@ -4559,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K47" s="14" t="s">
         <v>12</v>
@@ -4576,19 +4584,19 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G48">
         <v>84</v>
@@ -4600,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K48" s="14" t="s">
         <v>12</v>
@@ -4617,19 +4625,19 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G49">
         <v>85</v>
@@ -4641,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K49" s="14" t="s">
         <v>12</v>
@@ -4658,19 +4666,19 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G50">
         <v>86</v>
@@ -4682,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K50" s="14" t="s">
         <v>12</v>
@@ -4699,19 +4707,19 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G51">
         <v>87</v>
@@ -4723,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K51" s="14" t="s">
         <v>12</v>
@@ -4740,19 +4748,19 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G52">
         <v>88</v>
@@ -4764,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K52" s="14" t="s">
         <v>12</v>
@@ -4781,19 +4789,19 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G53">
         <v>89</v>
@@ -4805,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53" s="14" t="s">
         <v>12</v>
@@ -4822,19 +4830,19 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
+        <v>423</v>
+      </c>
+      <c r="C54" t="s">
+        <v>423</v>
+      </c>
+      <c r="D54" t="s">
+        <v>423</v>
+      </c>
+      <c r="E54" t="s">
         <v>424</v>
       </c>
-      <c r="C54" t="s">
-        <v>424</v>
-      </c>
-      <c r="D54" t="s">
-        <v>424</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>425</v>
-      </c>
-      <c r="F54" t="s">
-        <v>426</v>
       </c>
       <c r="G54">
         <v>94</v>
@@ -4846,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K54" s="14" t="s">
         <v>12</v>
@@ -4863,19 +4871,19 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G55">
         <v>95</v>
@@ -4887,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K55" s="14" t="s">
         <v>12</v>
@@ -4904,19 +4912,19 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G56">
         <v>96</v>
@@ -4928,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K56" s="14" t="s">
         <v>12</v>
@@ -4945,19 +4953,19 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G57">
         <v>97</v>
@@ -4969,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K57" s="14" t="s">
         <v>12</v>
@@ -4986,19 +4994,19 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G58">
         <v>98</v>
@@ -5010,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K58" s="14" t="s">
         <v>12</v>
@@ -5027,19 +5035,19 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G59">
         <v>102</v>
@@ -5051,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K59" s="14" t="s">
         <v>12</v>
@@ -5068,19 +5076,19 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G60">
         <v>103</v>
@@ -5092,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K60" s="14" t="s">
         <v>12</v>
@@ -5109,19 +5117,19 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F61" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G61">
         <v>104</v>
@@ -5133,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K61" s="14" t="s">
         <v>12</v>
@@ -5150,19 +5158,19 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G62">
         <v>105</v>
@@ -5174,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K62" s="14" t="s">
         <v>12</v>
@@ -5191,19 +5199,19 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G63">
         <v>106</v>
@@ -5215,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K63" s="14" t="s">
         <v>12</v>
@@ -5232,19 +5240,19 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G64">
         <v>107</v>
@@ -5256,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K64" s="14" t="s">
         <v>12</v>
@@ -5273,19 +5281,19 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G65">
         <v>108</v>
@@ -5297,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K65" s="14" t="s">
         <v>12</v>
@@ -5314,19 +5322,19 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G66">
         <v>109</v>
@@ -5338,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K66" s="14" t="s">
         <v>12</v>
@@ -5355,19 +5363,19 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G67">
         <v>110</v>
@@ -5379,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K67" s="14" t="s">
         <v>12</v>
@@ -5396,19 +5404,19 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G68">
         <v>111</v>
@@ -5420,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K68" s="14" t="s">
         <v>12</v>
@@ -5437,19 +5445,19 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G69">
         <v>112</v>
@@ -5461,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K69" s="14" t="s">
         <v>12</v>
@@ -5478,19 +5486,19 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G70">
         <v>113</v>
@@ -5502,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K70" s="14" t="s">
         <v>12</v>
@@ -5519,19 +5527,19 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G71">
         <v>114</v>
@@ -5543,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K71" s="14" t="s">
         <v>12</v>
@@ -5560,19 +5568,19 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G72">
         <v>115</v>
@@ -5584,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K72" s="14" t="s">
         <v>12</v>
@@ -5601,19 +5609,19 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G73">
         <v>116</v>
@@ -5625,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K73" s="14" t="s">
         <v>12</v>
@@ -5642,19 +5650,19 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F74" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G74">
         <v>124</v>
@@ -5666,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K74" s="14" t="s">
         <v>12</v>
@@ -5683,19 +5691,19 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F75" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G75">
         <v>125</v>
@@ -5707,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K75" s="14" t="s">
         <v>12</v>
@@ -5724,19 +5732,19 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G76">
         <v>126</v>
@@ -5748,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K76" s="14" t="s">
         <v>12</v>
@@ -5765,19 +5773,19 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G77">
         <v>127</v>
@@ -5789,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K77" s="14" t="s">
         <v>12</v>
@@ -5806,19 +5814,19 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G78">
         <v>128</v>
@@ -5830,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K78" s="14" t="s">
         <v>12</v>
@@ -5847,19 +5855,19 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F79" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G79">
         <v>129</v>
@@ -5871,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K79" s="14" t="s">
         <v>12</v>
@@ -5888,19 +5896,19 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G80">
         <v>130</v>
@@ -5912,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K80" s="14" t="s">
         <v>12</v>
@@ -5929,19 +5937,19 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F81" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G81">
         <v>131</v>
@@ -5953,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K81" s="14" t="s">
         <v>12</v>
@@ -5970,19 +5978,19 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F82" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G82">
         <v>132</v>
@@ -5994,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K82" s="14" t="s">
         <v>12</v>
@@ -6011,19 +6019,19 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F83" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G83">
         <v>133</v>
@@ -6035,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K83" s="14" t="s">
         <v>12</v>
@@ -6052,19 +6060,19 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E84" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F84" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G84">
         <v>172</v>
@@ -6076,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K84" s="15" t="s">
         <v>13</v>
@@ -6093,19 +6101,19 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E85" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F85" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G85">
         <v>173</v>
@@ -6117,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K85" s="15" t="s">
         <v>13</v>
@@ -6134,19 +6142,19 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G86">
         <v>174</v>
@@ -6158,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K86" s="15" t="s">
         <v>13</v>
@@ -6175,19 +6183,19 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F87" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G87">
         <v>175</v>
@@ -6199,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K87" s="15" t="s">
         <v>13</v>
@@ -6216,19 +6224,19 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F88" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G88">
         <v>180</v>
@@ -6240,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K88" s="14" t="s">
         <v>12</v>
@@ -6257,19 +6265,19 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F89" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G89">
         <v>181</v>
@@ -6281,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K89" s="14" t="s">
         <v>12</v>
@@ -6298,19 +6306,19 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F90" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G90">
         <v>182</v>
@@ -6322,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K90" s="14" t="s">
         <v>12</v>
@@ -6339,19 +6347,19 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F91" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G91">
         <v>183</v>
@@ -6363,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K91" s="14" t="s">
         <v>12</v>
@@ -6380,19 +6388,19 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F92" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G92">
         <v>186</v>
@@ -6404,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K92" s="14" t="s">
         <v>12</v>
@@ -6421,19 +6429,19 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F93" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G93">
         <v>187</v>
@@ -6445,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K93" s="14" t="s">
         <v>12</v>
@@ -6462,19 +6470,19 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F94" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G94">
         <v>188</v>
@@ -6486,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K94" s="14" t="s">
         <v>12</v>
@@ -6503,19 +6511,19 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F95" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G95">
         <v>193</v>
@@ -6527,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K95" s="14" t="s">
         <v>12</v>
@@ -6544,19 +6552,19 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F96" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G96">
         <v>197</v>
@@ -6568,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K96" s="14" t="s">
         <v>12</v>
@@ -6585,19 +6593,19 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F97" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G97">
         <v>201</v>
@@ -6609,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K97" s="14" t="s">
         <v>12</v>
@@ -6626,19 +6634,19 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D98" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E98" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G98">
         <v>205</v>
@@ -6650,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K98" s="14" t="s">
         <v>12</v>
@@ -6667,19 +6675,19 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
+        <v>446</v>
+      </c>
+      <c r="C99" t="s">
+        <v>446</v>
+      </c>
+      <c r="D99" t="s">
+        <v>446</v>
+      </c>
+      <c r="E99" t="s">
         <v>447</v>
       </c>
-      <c r="C99" t="s">
-        <v>447</v>
-      </c>
-      <c r="D99" t="s">
-        <v>447</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>448</v>
-      </c>
-      <c r="F99" t="s">
-        <v>449</v>
       </c>
       <c r="G99">
         <v>210</v>
@@ -6691,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K99" s="14" t="s">
         <v>12</v>
@@ -6708,19 +6716,19 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E100" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F100" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G100">
         <v>211</v>
@@ -6732,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K100" s="14" t="s">
         <v>12</v>
@@ -6749,19 +6757,19 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E101" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G101">
         <v>212</v>
@@ -6773,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K101" s="14" t="s">
         <v>12</v>
@@ -6790,19 +6798,19 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E102" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F102" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G102">
         <v>213</v>
@@ -6814,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K102" s="14" t="s">
         <v>12</v>
@@ -6831,19 +6839,19 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
+        <v>450</v>
+      </c>
+      <c r="C103" t="s">
+        <v>450</v>
+      </c>
+      <c r="D103" t="s">
+        <v>450</v>
+      </c>
+      <c r="E103" t="s">
         <v>451</v>
       </c>
-      <c r="C103" t="s">
-        <v>451</v>
-      </c>
-      <c r="D103" t="s">
-        <v>451</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>452</v>
-      </c>
-      <c r="F103" t="s">
-        <v>453</v>
       </c>
       <c r="G103">
         <v>214</v>
@@ -6855,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K103" s="14" t="s">
         <v>12</v>
@@ -6872,19 +6880,19 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E104" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F104" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G104">
         <v>215</v>
@@ -6896,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K104" s="14" t="s">
         <v>12</v>
@@ -6913,19 +6921,19 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E105" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G105">
         <v>216</v>
@@ -6937,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K105" s="14" t="s">
         <v>12</v>
@@ -6954,19 +6962,19 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E106" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F106" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G106">
         <v>217</v>
@@ -6978,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K106" s="14" t="s">
         <v>12</v>
@@ -6995,19 +7003,19 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E107" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F107" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G107">
         <v>218</v>
@@ -7019,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K107" s="14" t="s">
         <v>12</v>
@@ -7036,19 +7044,19 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
+        <v>462</v>
+      </c>
+      <c r="C108" t="s">
+        <v>462</v>
+      </c>
+      <c r="D108" t="s">
+        <v>462</v>
+      </c>
+      <c r="E108" t="s">
         <v>463</v>
       </c>
-      <c r="C108" t="s">
-        <v>463</v>
-      </c>
-      <c r="D108" t="s">
-        <v>463</v>
-      </c>
-      <c r="E108" t="s">
-        <v>464</v>
-      </c>
       <c r="F108" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G108">
         <v>219</v>
@@ -7060,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108" s="15" t="s">
         <v>13</v>
@@ -7084,7 +7092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
@@ -7134,13 +7142,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
@@ -7151,16 +7159,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -7168,13 +7176,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
@@ -7185,13 +7193,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -7202,13 +7210,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -7219,13 +7227,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -7236,13 +7244,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -7253,13 +7261,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -7270,13 +7278,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -7287,14 +7295,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>21</v>
@@ -7305,13 +7313,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E13" t="s">
         <v>437</v>
-      </c>
-      <c r="C13" t="s">
-        <v>437</v>
-      </c>
-      <c r="E13" t="s">
-        <v>438</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -7322,13 +7330,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -7339,13 +7347,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -7356,13 +7364,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -7373,13 +7381,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -7390,13 +7398,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -7407,13 +7415,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -7424,13 +7432,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
         <v>22</v>
@@ -7441,13 +7449,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -7458,13 +7466,13 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -7475,13 +7483,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -7492,13 +7500,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -7509,13 +7517,13 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
@@ -7526,13 +7534,13 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
@@ -7543,13 +7551,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -7560,13 +7568,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -7577,13 +7585,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -7594,13 +7602,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -7611,13 +7619,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -7628,13 +7636,13 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -7645,13 +7653,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
+        <v>438</v>
+      </c>
+      <c r="C33" t="s">
+        <v>438</v>
+      </c>
+      <c r="E33" t="s">
         <v>439</v>
-      </c>
-      <c r="C33" t="s">
-        <v>439</v>
-      </c>
-      <c r="E33" t="s">
-        <v>440</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -7662,13 +7670,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -7679,13 +7687,13 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -7696,13 +7704,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -7713,13 +7721,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -7730,13 +7738,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -7747,13 +7755,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -7764,13 +7772,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -7781,13 +7789,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -7798,13 +7806,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -7815,13 +7823,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -7832,13 +7840,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -7849,13 +7857,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -7866,13 +7874,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -7883,13 +7891,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -7900,13 +7908,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -7917,13 +7925,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C49" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -7934,13 +7942,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -7951,13 +7959,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -7968,13 +7976,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -7985,13 +7993,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -8002,13 +8010,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
+        <v>422</v>
+      </c>
+      <c r="C54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E54" t="s">
         <v>423</v>
-      </c>
-      <c r="C54" t="s">
-        <v>423</v>
-      </c>
-      <c r="E54" t="s">
-        <v>424</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -8019,13 +8027,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -8036,13 +8044,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C56" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -8053,13 +8061,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C57" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -8070,13 +8078,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -8087,13 +8095,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8104,13 +8112,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -8121,13 +8129,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -8138,13 +8146,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -8155,13 +8163,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -8172,13 +8180,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C64" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -8189,13 +8197,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -8206,13 +8214,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C66" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -8223,13 +8231,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C67" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -8240,13 +8248,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C68" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -8257,13 +8265,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -8274,13 +8282,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C70" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -8291,13 +8299,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -8308,13 +8316,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C72" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -8325,13 +8333,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C73" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -8342,13 +8350,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C74" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -8359,13 +8367,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C75" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -8376,13 +8384,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C76" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -8393,13 +8401,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C77" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -8410,13 +8418,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C78" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -8427,13 +8435,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C79" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -8444,13 +8452,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C80" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -8461,13 +8469,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C81" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -8478,13 +8486,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C82" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -8495,13 +8503,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C83" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -8512,13 +8520,13 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C84" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F84" t="s">
         <v>23</v>
@@ -8529,13 +8537,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
         <v>23</v>
@@ -8546,13 +8554,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C86" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
         <v>23</v>
@@ -8563,13 +8571,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C87" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
         <v>23</v>
@@ -8580,13 +8588,13 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C88" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
         <v>22</v>
@@ -8597,13 +8605,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
@@ -8614,13 +8622,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C90" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -8631,13 +8639,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C91" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -8648,13 +8656,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C92" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
@@ -8665,13 +8673,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C93" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E93" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
         <v>22</v>
@@ -8682,13 +8690,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C94" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F94" t="s">
         <v>22</v>
@@ -8699,13 +8707,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C95" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
         <v>22</v>
@@ -8716,13 +8724,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C96" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
@@ -8733,13 +8741,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C97" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
@@ -8750,13 +8758,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C98" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -8767,13 +8775,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C99" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E99" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -8784,13 +8792,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C100" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
@@ -8801,13 +8809,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C101" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F101" t="s">
         <v>22</v>
@@ -8818,13 +8826,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C102" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -8835,13 +8843,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C103" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E103" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -8852,13 +8860,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C104" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -8869,13 +8877,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C105" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -8886,13 +8894,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C106" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
@@ -8903,13 +8911,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C107" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F107" t="s">
         <v>22</v>
@@ -8920,13 +8928,13 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C108" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E108" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F108" t="s">
         <v>23</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BIB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="26520" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variable" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="494">
   <si>
     <t>Variable</t>
   </si>
@@ -1458,6 +1458,78 @@
   </si>
   <si>
     <t>Target Default (3 months)</t>
+  </si>
+  <si>
+    <t>IND_220</t>
+  </si>
+  <si>
+    <t>BE_IND_220</t>
+  </si>
+  <si>
+    <t>BE_IND_220_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_225</t>
+  </si>
+  <si>
+    <t>IND_225</t>
+  </si>
+  <si>
+    <t>225 - Bond Trade Suspended</t>
+  </si>
+  <si>
+    <t>220 - Materiality threshold</t>
+  </si>
+  <si>
+    <t>221 - Past due public creditors / employees</t>
+  </si>
+  <si>
+    <t>IND_221</t>
+  </si>
+  <si>
+    <t>BE_IND_221</t>
+  </si>
+  <si>
+    <t>BE_IND_221_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_225_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_222_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_223_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_224_STRING</t>
+  </si>
+  <si>
+    <t>BE_IND_222</t>
+  </si>
+  <si>
+    <t>BE_IND_223</t>
+  </si>
+  <si>
+    <t>BE_IND_224</t>
+  </si>
+  <si>
+    <t>IND_222</t>
+  </si>
+  <si>
+    <t>IND_223</t>
+  </si>
+  <si>
+    <t>IND_224</t>
+  </si>
+  <si>
+    <t>222 - Collateral Value Decrease</t>
+  </si>
+  <si>
+    <t>223 - Delta Cashflow</t>
+  </si>
+  <si>
+    <t>224 - Covenant Breach</t>
   </si>
 </sst>
 </file>
@@ -2652,10 +2724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7080,6 +7152,252 @@
         <v>0</v>
       </c>
     </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>471</v>
+      </c>
+      <c r="C109" t="s">
+        <v>471</v>
+      </c>
+      <c r="D109" t="s">
+        <v>471</v>
+      </c>
+      <c r="E109" t="s">
+        <v>470</v>
+      </c>
+      <c r="F109" t="s">
+        <v>476</v>
+      </c>
+      <c r="G109">
+        <v>220</v>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K109" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>479</v>
+      </c>
+      <c r="C110" t="s">
+        <v>479</v>
+      </c>
+      <c r="D110" t="s">
+        <v>479</v>
+      </c>
+      <c r="E110" t="s">
+        <v>478</v>
+      </c>
+      <c r="F110" t="s">
+        <v>477</v>
+      </c>
+      <c r="G110">
+        <v>221</v>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K110" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>485</v>
+      </c>
+      <c r="C111" t="s">
+        <v>485</v>
+      </c>
+      <c r="D111" t="s">
+        <v>485</v>
+      </c>
+      <c r="E111" t="s">
+        <v>488</v>
+      </c>
+      <c r="F111" t="s">
+        <v>491</v>
+      </c>
+      <c r="G111">
+        <v>222</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K111" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L111" t="b">
+        <v>0</v>
+      </c>
+      <c r="M111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>486</v>
+      </c>
+      <c r="C112" t="s">
+        <v>486</v>
+      </c>
+      <c r="D112" t="s">
+        <v>486</v>
+      </c>
+      <c r="E112" t="s">
+        <v>489</v>
+      </c>
+      <c r="F112" t="s">
+        <v>492</v>
+      </c>
+      <c r="G112">
+        <v>223</v>
+      </c>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K112" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L112" t="b">
+        <v>0</v>
+      </c>
+      <c r="M112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>487</v>
+      </c>
+      <c r="C113" t="s">
+        <v>487</v>
+      </c>
+      <c r="D113" t="s">
+        <v>487</v>
+      </c>
+      <c r="E113" t="s">
+        <v>490</v>
+      </c>
+      <c r="F113" t="s">
+        <v>493</v>
+      </c>
+      <c r="G113">
+        <v>224</v>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K113" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>473</v>
+      </c>
+      <c r="C114" t="s">
+        <v>473</v>
+      </c>
+      <c r="D114" t="s">
+        <v>473</v>
+      </c>
+      <c r="E114" t="s">
+        <v>474</v>
+      </c>
+      <c r="F114" t="s">
+        <v>475</v>
+      </c>
+      <c r="G114">
+        <v>225</v>
+      </c>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K114" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L114" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:M108"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7090,11 +7408,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8937,6 +9255,108 @@
         <v>462</v>
       </c>
       <c r="F108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>472</v>
+      </c>
+      <c r="C109" t="s">
+        <v>472</v>
+      </c>
+      <c r="E109" t="s">
+        <v>471</v>
+      </c>
+      <c r="F109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>480</v>
+      </c>
+      <c r="C110" t="s">
+        <v>480</v>
+      </c>
+      <c r="E110" t="s">
+        <v>479</v>
+      </c>
+      <c r="F110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>482</v>
+      </c>
+      <c r="C111" t="s">
+        <v>482</v>
+      </c>
+      <c r="E111" t="s">
+        <v>485</v>
+      </c>
+      <c r="F111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>483</v>
+      </c>
+      <c r="C112" t="s">
+        <v>483</v>
+      </c>
+      <c r="E112" t="s">
+        <v>486</v>
+      </c>
+      <c r="F112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>484</v>
+      </c>
+      <c r="C113" t="s">
+        <v>484</v>
+      </c>
+      <c r="E113" t="s">
+        <v>487</v>
+      </c>
+      <c r="F113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>481</v>
+      </c>
+      <c r="C114" t="s">
+        <v>481</v>
+      </c>
+      <c r="E114" t="s">
+        <v>473</v>
+      </c>
+      <c r="F114" t="s">
         <v>23</v>
       </c>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/21_Inst_Variable_BIB.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Fields definition" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variable!$A$2:$M$109</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="499">
   <si>
     <t>Variable</t>
   </si>
@@ -1530,18 +1530,40 @@
   </si>
   <si>
     <t>224 - Covenant Breach</t>
+  </si>
+  <si>
+    <t>EXPOSURE</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>BE_EXPOSURE</t>
+  </si>
+  <si>
+    <t>IsCustomField</t>
+  </si>
+  <si>
+    <t>BE_EXPOSURE_REAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1652,7 +1674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1660,45 +1682,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1798,11 +1840,17 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:rowOff>98242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1856,11 +1904,17 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:rowOff>98242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1914,11 +1968,17 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:rowOff>98242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1972,11 +2032,17 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:rowOff>98242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2030,11 +2096,17 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2274585</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>108825</xdr:rowOff>
+      <xdr:rowOff>98242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2092,7 +2164,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2140,7 +2218,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2198,7 +2282,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2256,7 +2346,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2314,7 +2410,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2372,7 +2474,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2430,7 +2538,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2724,10 +2838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,7 +2862,7 @@
     <col min="14" max="1023" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2764,8 +2878,9 @@
       <c r="K1" s="13"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2805,8 +2920,11 @@
       <c r="M2" s="4" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N2" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2846,8 +2964,11 @@
       <c r="M3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -2887,8 +3008,11 @@
       <c r="M4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -2928,110 +3052,119 @@
       <c r="M5" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="E6" t="s">
+        <v>494</v>
+      </c>
+      <c r="F6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>60</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>74</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>83</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="K7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>75</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>89</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>2</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -3051,69 +3184,75 @@
       <c r="M8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>85</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>7</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -3133,28 +3272,31 @@
       <c r="M10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -3174,192 +3316,207 @@
       <c r="M11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>456</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>456</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>456</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>457</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>458</v>
       </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12" t="s">
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="16" t="b">
+      <c r="K13" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>437</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>437</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>437</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>440</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>441</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>13</v>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11" t="s">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="K14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>65</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>95</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>14</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="K15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
         <v>432</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>432</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>432</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>434</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>435</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>15</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16">
-        <v>16</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -3379,28 +3536,31 @@
       <c r="M16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>465</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>465</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>465</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>466</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>467</v>
+        <v>86</v>
       </c>
       <c r="G17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -3420,28 +3580,31 @@
       <c r="M17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="C18" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="D18" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="E18" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="F18" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="G18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -3461,28 +3624,31 @@
       <c r="M18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>442</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>442</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>442</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>444</v>
       </c>
       <c r="G19">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -3502,69 +3668,75 @@
       <c r="M19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20">
+        <v>34</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
         <v>68</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>68</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>77</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>91</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>35</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21">
-        <v>40</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -3584,28 +3756,31 @@
       <c r="M21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G22">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -3625,69 +3800,75 @@
       <c r="M22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23">
+        <v>44</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>71</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>71</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>80</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>92</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>51</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24">
-        <v>55</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -3698,78 +3879,84 @@
       <c r="J24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="14" t="b">
+      <c r="K24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25">
+        <v>55</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>73</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>73</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>82</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>88</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>56</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" t="s">
-        <v>266</v>
-      </c>
-      <c r="G26">
-        <v>58</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -3789,28 +3976,31 @@
       <c r="M26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G27">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -3830,28 +4020,31 @@
       <c r="M27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G28">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -3871,28 +4064,31 @@
       <c r="M28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G29">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -3912,28 +4108,31 @@
       <c r="M29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G30">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -3953,28 +4152,31 @@
       <c r="M30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G31">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -3994,28 +4196,31 @@
       <c r="M31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G32">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -4035,28 +4240,31 @@
       <c r="M32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>439</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>439</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>439</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>454</v>
+        <v>194</v>
       </c>
       <c r="F33" t="s">
-        <v>455</v>
+        <v>272</v>
       </c>
       <c r="G33">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -4076,28 +4284,31 @@
       <c r="M33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>439</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>439</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>454</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>455</v>
       </c>
       <c r="G34">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -4117,28 +4328,31 @@
       <c r="M34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G35">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -4158,28 +4372,31 @@
       <c r="M35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G36">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -4199,28 +4416,31 @@
       <c r="M36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G37">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -4240,28 +4460,31 @@
       <c r="M37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G38">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -4281,28 +4504,31 @@
       <c r="M38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G39">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -4322,28 +4548,31 @@
       <c r="M39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G40">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -4363,28 +4592,31 @@
       <c r="M40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G41">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -4404,28 +4636,31 @@
       <c r="M41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G42">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -4445,28 +4680,31 @@
       <c r="M42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G43">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -4486,28 +4724,31 @@
       <c r="M43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G44">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -4527,28 +4768,31 @@
       <c r="M44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G45">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -4568,28 +4812,31 @@
       <c r="M45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G46">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -4609,28 +4856,31 @@
       <c r="M46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G47">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -4650,28 +4900,31 @@
       <c r="M47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G48">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -4691,28 +4944,31 @@
       <c r="M48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G49">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -4732,28 +4988,31 @@
       <c r="M49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G50">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -4773,28 +5032,31 @@
       <c r="M50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G51">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -4814,28 +5076,31 @@
       <c r="M51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G52">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -4855,28 +5120,31 @@
       <c r="M52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G53">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -4896,28 +5164,31 @@
       <c r="M53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>423</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>423</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>423</v>
+        <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>424</v>
+        <v>214</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>292</v>
       </c>
       <c r="G54">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -4937,28 +5208,31 @@
       <c r="M54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>423</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>423</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>423</v>
       </c>
       <c r="E55" t="s">
-        <v>215</v>
+        <v>424</v>
       </c>
       <c r="F55" t="s">
-        <v>293</v>
+        <v>425</v>
       </c>
       <c r="G55">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -4978,28 +5252,31 @@
       <c r="M55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G56">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -5019,28 +5296,31 @@
       <c r="M56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G57">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -5060,28 +5340,31 @@
       <c r="M57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G58">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -5101,28 +5384,31 @@
       <c r="M58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G59">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -5142,28 +5428,31 @@
       <c r="M59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G60">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -5183,28 +5472,31 @@
       <c r="M60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G61">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -5224,28 +5516,31 @@
       <c r="M61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G62">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -5265,28 +5560,31 @@
       <c r="M62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G63">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -5306,28 +5604,31 @@
       <c r="M63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G64">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -5347,28 +5648,31 @@
       <c r="M64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G65">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -5388,28 +5692,31 @@
       <c r="M65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G66">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
@@ -5429,28 +5736,31 @@
       <c r="M66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G67">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -5470,28 +5780,31 @@
       <c r="M67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G68">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
@@ -5511,28 +5824,31 @@
       <c r="M68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G69">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -5552,28 +5868,31 @@
       <c r="M69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F70" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G70">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -5593,28 +5912,31 @@
       <c r="M70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G71">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -5634,28 +5956,31 @@
       <c r="M71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G72">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -5675,28 +6000,31 @@
       <c r="M72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G73">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -5716,28 +6044,31 @@
       <c r="M73" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G74">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -5757,28 +6088,31 @@
       <c r="M74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G75">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -5798,28 +6132,31 @@
       <c r="M75" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G76">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -5839,28 +6176,31 @@
       <c r="M76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F77" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G77">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -5880,28 +6220,31 @@
       <c r="M77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G78">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -5921,28 +6264,31 @@
       <c r="M78" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G79">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -5962,28 +6308,31 @@
       <c r="M79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F80" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G80">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -6003,28 +6352,31 @@
       <c r="M80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F81" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G81">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -6044,28 +6396,31 @@
       <c r="M81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F82" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G82">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -6085,28 +6440,31 @@
       <c r="M82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E83" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F83" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G83">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -6126,69 +6484,75 @@
       <c r="M83" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" t="s">
+        <v>165</v>
+      </c>
+      <c r="E84" t="s">
+        <v>243</v>
+      </c>
+      <c r="F84" t="s">
+        <v>321</v>
+      </c>
+      <c r="G84">
+        <v>133</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
         <v>166</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>166</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>166</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>244</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F85" t="s">
         <v>322</v>
       </c>
-      <c r="G84">
+      <c r="G85">
         <v>172</v>
-      </c>
-      <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K84" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L84" t="b">
-        <v>0</v>
-      </c>
-      <c r="M84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" t="s">
-        <v>167</v>
-      </c>
-      <c r="E85" t="s">
-        <v>245</v>
-      </c>
-      <c r="F85" t="s">
-        <v>323</v>
-      </c>
-      <c r="G85">
-        <v>173</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -6208,28 +6572,31 @@
       <c r="M85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G86">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -6249,28 +6616,31 @@
       <c r="M86" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G87">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -6290,69 +6660,75 @@
       <c r="M87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B88" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" t="s">
+        <v>169</v>
+      </c>
+      <c r="E88" t="s">
+        <v>247</v>
+      </c>
+      <c r="F88" t="s">
+        <v>325</v>
+      </c>
+      <c r="G88">
+        <v>175</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K88" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
         <v>170</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>170</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>170</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>248</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F89" t="s">
         <v>326</v>
       </c>
-      <c r="G88">
+      <c r="G89">
         <v>180</v>
-      </c>
-      <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K88" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L88" t="b">
-        <v>0</v>
-      </c>
-      <c r="M88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" t="s">
-        <v>171</v>
-      </c>
-      <c r="C89" t="s">
-        <v>171</v>
-      </c>
-      <c r="D89" t="s">
-        <v>171</v>
-      </c>
-      <c r="E89" t="s">
-        <v>249</v>
-      </c>
-      <c r="F89" t="s">
-        <v>327</v>
-      </c>
-      <c r="G89">
-        <v>181</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -6372,28 +6748,31 @@
       <c r="M89" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E90" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F90" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G90">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -6413,28 +6792,31 @@
       <c r="M90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E91" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F91" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G91">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -6454,28 +6836,31 @@
       <c r="M91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F92" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G92">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -6495,28 +6880,31 @@
       <c r="M92" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E93" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F93" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G93">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -6536,28 +6924,31 @@
       <c r="M93" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F94" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G94">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -6577,28 +6968,31 @@
       <c r="M94" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F95" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G95">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -6618,28 +7012,31 @@
       <c r="M95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E96" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F96" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G96">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -6659,28 +7056,31 @@
       <c r="M96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F97" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G97">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -6700,28 +7100,31 @@
       <c r="M97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E98" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F98" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G98">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -6741,28 +7144,31 @@
       <c r="M98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>446</v>
+        <v>180</v>
       </c>
       <c r="C99" t="s">
-        <v>446</v>
+        <v>180</v>
       </c>
       <c r="D99" t="s">
-        <v>446</v>
+        <v>180</v>
       </c>
       <c r="E99" t="s">
-        <v>447</v>
+        <v>258</v>
       </c>
       <c r="F99" t="s">
-        <v>448</v>
+        <v>336</v>
       </c>
       <c r="G99">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -6782,28 +7188,31 @@
       <c r="M99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>446</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
+        <v>446</v>
       </c>
       <c r="D100" t="s">
-        <v>181</v>
+        <v>446</v>
       </c>
       <c r="E100" t="s">
-        <v>259</v>
+        <v>447</v>
       </c>
       <c r="F100" t="s">
-        <v>337</v>
+        <v>448</v>
       </c>
       <c r="G100">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -6823,28 +7232,31 @@
       <c r="M100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E101" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F101" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G101">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -6864,28 +7276,31 @@
       <c r="M101" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E102" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F102" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G102">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -6905,28 +7320,31 @@
       <c r="M102" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>450</v>
+        <v>183</v>
       </c>
       <c r="C103" t="s">
-        <v>450</v>
+        <v>183</v>
       </c>
       <c r="D103" t="s">
-        <v>450</v>
+        <v>183</v>
       </c>
       <c r="E103" t="s">
-        <v>451</v>
+        <v>261</v>
       </c>
       <c r="F103" t="s">
-        <v>452</v>
+        <v>339</v>
       </c>
       <c r="G103">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -6946,28 +7364,31 @@
       <c r="M103" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>184</v>
+        <v>450</v>
       </c>
       <c r="C104" t="s">
-        <v>184</v>
+        <v>450</v>
       </c>
       <c r="D104" t="s">
-        <v>184</v>
+        <v>450</v>
       </c>
       <c r="E104" t="s">
-        <v>262</v>
+        <v>451</v>
       </c>
       <c r="F104" t="s">
-        <v>340</v>
+        <v>452</v>
       </c>
       <c r="G104">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -6987,28 +7408,31 @@
       <c r="M104" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E105" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F105" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G105">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -7028,28 +7452,31 @@
       <c r="M105" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E106" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F106" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G106">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -7069,28 +7496,31 @@
       <c r="M106" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E107" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F107" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G107">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -7110,69 +7540,75 @@
       <c r="M107" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B108" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" t="s">
+        <v>187</v>
+      </c>
+      <c r="D108" t="s">
+        <v>187</v>
+      </c>
+      <c r="E108" t="s">
+        <v>265</v>
+      </c>
+      <c r="F108" t="s">
+        <v>343</v>
+      </c>
+      <c r="G108">
+        <v>218</v>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K108" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="b">
+        <v>0</v>
+      </c>
+      <c r="N108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
         <v>462</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>462</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
         <v>462</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E109" t="s">
         <v>463</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F109" t="s">
         <v>461</v>
       </c>
-      <c r="G108">
+      <c r="G109">
         <v>219</v>
-      </c>
-      <c r="H108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K108" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L108" t="b">
-        <v>0</v>
-      </c>
-      <c r="M108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" t="s">
-        <v>471</v>
-      </c>
-      <c r="C109" t="s">
-        <v>471</v>
-      </c>
-      <c r="D109" t="s">
-        <v>471</v>
-      </c>
-      <c r="E109" t="s">
-        <v>470</v>
-      </c>
-      <c r="F109" t="s">
-        <v>476</v>
-      </c>
-      <c r="G109">
-        <v>220</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -7192,28 +7628,31 @@
       <c r="M109" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C110" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D110" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E110" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F110" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G110">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -7233,28 +7672,31 @@
       <c r="M110" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C111" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D111" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E111" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F111" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="G111">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -7274,28 +7716,31 @@
       <c r="M111" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C112" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D112" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E112" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F112" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G112">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -7315,28 +7760,31 @@
       <c r="M112" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C113" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D113" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E113" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F113" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G113">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -7356,28 +7804,31 @@
       <c r="M113" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="C114" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="D114" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="E114" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="F114" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="G114">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -7397,9 +7848,56 @@
       <c r="M114" t="b">
         <v>0</v>
       </c>
+      <c r="N114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>473</v>
+      </c>
+      <c r="C115" t="s">
+        <v>473</v>
+      </c>
+      <c r="D115" t="s">
+        <v>473</v>
+      </c>
+      <c r="E115" t="s">
+        <v>474</v>
+      </c>
+      <c r="F115" t="s">
+        <v>475</v>
+      </c>
+      <c r="G115">
+        <v>225</v>
+      </c>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K115" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L115" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" t="b">
+        <v>0</v>
+      </c>
+      <c r="N115" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M108"/>
+  <autoFilter ref="A2:M109"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7408,11 +7906,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7511,13 +8009,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>498</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>498</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>496</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -7528,16 +8026,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7545,13 +8043,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -7562,16 +8060,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7579,13 +8077,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -7596,51 +8094,51 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>426</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" t="s">
+        <v>426</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>436</v>
-      </c>
-      <c r="C13" t="s">
-        <v>436</v>
-      </c>
-      <c r="E13" t="s">
-        <v>437</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7648,13 +8146,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>436</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>436</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>437</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -7665,16 +8163,16 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>433</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>432</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7682,13 +8180,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="C16" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="E16" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -7699,13 +8197,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>468</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>468</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>465</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -7716,13 +8214,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>445</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>445</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>442</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -7733,13 +8231,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>445</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>445</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>442</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -7750,16 +8248,16 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7767,13 +8265,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
         <v>22</v>
@@ -7784,13 +8282,13 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -7801,16 +8299,16 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -7818,13 +8316,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>460</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>460</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
@@ -7835,16 +8333,16 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>460</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>460</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -7852,13 +8350,13 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>344</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>344</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
@@ -7869,13 +8367,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
@@ -7886,13 +8384,13 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
@@ -7903,13 +8401,13 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -7920,13 +8418,13 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
@@ -7937,13 +8435,13 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -7954,13 +8452,13 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -7971,13 +8469,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="C33" t="s">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="E33" t="s">
-        <v>439</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -7988,13 +8486,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
       <c r="C34" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>439</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -8005,13 +8503,13 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -8022,13 +8520,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -8039,13 +8537,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
@@ -8056,13 +8554,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
         <v>22</v>
@@ -8073,13 +8571,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -8090,13 +8588,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -8107,13 +8605,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -8124,13 +8622,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F42" t="s">
         <v>22</v>
@@ -8141,13 +8639,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F43" t="s">
         <v>22</v>
@@ -8158,13 +8656,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F44" t="s">
         <v>22</v>
@@ -8175,13 +8673,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
@@ -8192,13 +8690,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
@@ -8209,13 +8707,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -8226,13 +8724,13 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F48" t="s">
         <v>22</v>
@@ -8243,13 +8741,13 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
@@ -8260,13 +8758,13 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C50" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
@@ -8277,13 +8775,13 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C51" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F51" t="s">
         <v>22</v>
@@ -8294,13 +8792,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F52" t="s">
         <v>22</v>
@@ -8311,13 +8809,13 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -8328,13 +8826,13 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="C54" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="E54" t="s">
-        <v>423</v>
+        <v>136</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -8345,13 +8843,13 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="C55" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>423</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -8362,13 +8860,13 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C56" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -8379,13 +8877,13 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C57" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -8396,13 +8894,13 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -8413,13 +8911,13 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C59" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F59" t="s">
         <v>22</v>
@@ -8430,13 +8928,13 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F60" t="s">
         <v>22</v>
@@ -8447,13 +8945,13 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
@@ -8464,13 +8962,13 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F62" t="s">
         <v>22</v>
@@ -8481,13 +8979,13 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
@@ -8498,13 +8996,13 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -8515,13 +9013,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C65" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -8532,13 +9030,13 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C66" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -8549,13 +9047,13 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C67" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -8566,13 +9064,13 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C68" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -8583,13 +9081,13 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C69" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -8600,13 +9098,13 @@
         <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -8617,13 +9115,13 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -8634,13 +9132,13 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -8651,13 +9149,13 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -8668,13 +9166,13 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -8685,13 +9183,13 @@
         <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C75" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -8702,13 +9200,13 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C76" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -8719,13 +9217,13 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -8736,13 +9234,13 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C78" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -8753,13 +9251,13 @@
         <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C79" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -8770,13 +9268,13 @@
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C80" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -8787,13 +9285,13 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C81" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -8804,13 +9302,13 @@
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C82" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -8821,13 +9319,13 @@
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C83" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -8838,16 +9336,16 @@
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C84" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -8855,13 +9353,13 @@
         <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C85" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
         <v>23</v>
@@ -8872,13 +9370,13 @@
         <v>11</v>
       </c>
       <c r="B86" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C86" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
         <v>23</v>
@@ -8889,13 +9387,13 @@
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C87" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
         <v>23</v>
@@ -8906,16 +9404,16 @@
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C88" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -8923,13 +9421,13 @@
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C89" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
         <v>22</v>
@@ -8940,13 +9438,13 @@
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C90" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
         <v>22</v>
@@ -8957,13 +9455,13 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C91" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
         <v>22</v>
@@ -8974,13 +9472,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C92" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
         <v>22</v>
@@ -8991,13 +9489,13 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C93" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F93" t="s">
         <v>22</v>
@@ -9008,13 +9506,13 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C94" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F94" t="s">
         <v>22</v>
@@ -9025,13 +9523,13 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C95" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
         <v>22</v>
@@ -9042,13 +9540,13 @@
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C96" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
         <v>22</v>
@@ -9059,13 +9557,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C97" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
@@ -9076,13 +9574,13 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C98" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -9093,13 +9591,13 @@
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="C99" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="E99" t="s">
-        <v>446</v>
+        <v>180</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -9110,13 +9608,13 @@
         <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="C100" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="E100" t="s">
-        <v>181</v>
+        <v>446</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
@@ -9127,13 +9625,13 @@
         <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C101" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F101" t="s">
         <v>22</v>
@@ -9144,13 +9642,13 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C102" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -9161,13 +9659,13 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="C103" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="E103" t="s">
-        <v>450</v>
+        <v>183</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -9178,13 +9676,13 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="C104" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="E104" t="s">
-        <v>184</v>
+        <v>450</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -9195,13 +9693,13 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C105" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F105" t="s">
         <v>22</v>
@@ -9212,13 +9710,13 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C106" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F106" t="s">
         <v>22</v>
@@ -9229,13 +9727,13 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C107" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F107" t="s">
         <v>22</v>
@@ -9246,16 +9744,16 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>464</v>
+        <v>421</v>
       </c>
       <c r="C108" t="s">
-        <v>464</v>
+        <v>421</v>
       </c>
       <c r="E108" t="s">
-        <v>462</v>
+        <v>187</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -9263,13 +9761,13 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C109" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E109" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F109" t="s">
         <v>23</v>
@@ -9280,13 +9778,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C110" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E110" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F110" t="s">
         <v>23</v>
@@ -9297,13 +9795,13 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C111" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E111" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F111" t="s">
         <v>23</v>
@@ -9314,13 +9812,13 @@
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C112" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E112" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F112" t="s">
         <v>23</v>
@@ -9331,13 +9829,13 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C113" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E113" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F113" t="s">
         <v>23</v>
@@ -9348,15 +9846,32 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
+        <v>484</v>
+      </c>
+      <c r="C114" t="s">
+        <v>484</v>
+      </c>
+      <c r="E114" t="s">
+        <v>487</v>
+      </c>
+      <c r="F114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
         <v>481</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>481</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E115" t="s">
         <v>473</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F115" t="s">
         <v>23</v>
       </c>
     </row>
